--- a/src/analysis_examples/circadb/results_jtk/cosinor_10449266_itfg3_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10449266_itfg3_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.12746335790721502, 0.2914057124208219]</t>
+          <t>[0.12760874490962903, 0.2912603254184079]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.87075496212541e-05</v>
+        <v>2.808148146149492e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.87075496212541e-05</v>
+        <v>2.808148146149492e-05</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9056843686024632</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2704739059562336, -0.5408948312486928]</t>
+          <t>[-1.2830528555201566, -0.5283158816847697]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.081227303665003e-05</v>
+        <v>6.121461880015389e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>4.081227303665003e-05</v>
+        <v>6.121461880015389e-05</v>
       </c>
       <c r="S2" t="n">
         <v>0.3522593576303608</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.31043000579273106, 0.39408870946799046]</t>
+          <t>[0.3104352163260898, 0.39408349893463174]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.361441441441517</v>
       </c>
       <c r="X2" t="n">
-        <v>2.007527527527571</v>
+        <v>1.960840840840884</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.715355355355463</v>
+        <v>4.762042042042151</v>
       </c>
     </row>
   </sheetData>
